--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\Digital Health Pilot - Multimodal Sensing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\DHI-Lab\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5CEA2-730B-48F6-9F22-01F4DDA75BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF72D1-11A2-4A04-A210-0D8C0D6E7F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All" sheetId="7" r:id="rId1"/>
+    <sheet name="All Subjects w info" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Healthy" sheetId="4" r:id="rId4"/>
+    <sheet name="Healthy w Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="DHI" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="135">
   <si>
     <t>Subject ID</t>
   </si>
@@ -381,13 +386,79 @@
   </si>
   <si>
     <t>DHI021</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Concuss</t>
+  </si>
+  <si>
+    <t>ConcussLabel</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Has Healthy Match?</t>
+  </si>
+  <si>
+    <t>NSI_Score</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Cognitive</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>Ocular</t>
+  </si>
+  <si>
+    <t>Vestibular</t>
+  </si>
+  <si>
+    <t>CP_score</t>
+  </si>
+  <si>
+    <t>VOMs</t>
+  </si>
+  <si>
+    <t>MiniBEST</t>
+  </si>
+  <si>
+    <t>DHI022</t>
+  </si>
+  <si>
+    <t>DHI023</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>DHI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +484,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -764,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -820,6 +899,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,11 +932,152 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -931,6 +1154,98 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:Q43" totalsRowShown="0">
+  <autoFilter ref="A1:Q43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{C044C6D2-CE0C-4909-9FBB-B96EDCB1FCAC}" name="ID" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{34919B2F-5D0B-4C75-B0BA-9FA545CC6BEE}" name="Age" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{CBB48687-91A3-4808-A9C3-5F03535C4FB2}" name="Sex" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{78C5C3FF-A1AE-445B-BDF2-DE09EE92304B}" name="Concuss" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{FC60F755-676A-4A00-8530-74DA172CA395}" name="ConcussLabel" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{63FE95DC-1C9A-4AC2-9826-AB231854CC13}" name="Type"/>
+    <tableColumn id="7" xr3:uid="{7A570111-DB52-4EDA-A699-1004DE89C18C}" name="Has Healthy Match?">
+      <calculatedColumnFormula>IF(D2="No", "Healthy", IF(COUNTIFS($B$2:$B$24,"&gt;="&amp;B2-1, $B$2:$B$24,"&lt;="&amp;B2+1, $C$2:$C$31,C2, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B9B97C7E-7728-413F-B3A5-11C32C9691E1}" name="NSI_Score"/>
+    <tableColumn id="9" xr3:uid="{298E2524-50DE-4C5D-89A4-88851E7AA4C6}" name="Anxiety"/>
+    <tableColumn id="10" xr3:uid="{DE826F2B-B90E-4018-B6E1-205CA9DA4AFA}" name="Cognitive"/>
+    <tableColumn id="11" xr3:uid="{F5D43121-086C-484A-B28B-AA3DABF41D67}" name="Migraine"/>
+    <tableColumn id="12" xr3:uid="{293252E6-7ADE-4A1B-9ECD-327D148803C6}" name="Ocular"/>
+    <tableColumn id="13" xr3:uid="{414DCE64-0D6E-4B7D-B458-DE18F8DEBF01}" name="Vestibular"/>
+    <tableColumn id="14" xr3:uid="{02C99074-BFD4-4110-91A5-DD0E40CF5872}" name="CP_score"/>
+    <tableColumn id="15" xr3:uid="{450A1504-AE23-4973-B2E6-A98413963B73}" name="VOMs"/>
+    <tableColumn id="16" xr3:uid="{2296B09E-33DE-4BBD-90A1-C57DCFB35AC3}" name="MiniBEST"/>
+    <tableColumn id="17" xr3:uid="{2CEAFE56-C0EB-48F3-83C2-8AE69790CA37}" name="DHI"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}" name="Table5" displayName="Table5" ref="A1:F33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F33" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{27C38256-A294-4057-87EF-B8C834C564CD}" name="Subject ID" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{58C573A5-A702-4293-B44E-27D5F281A91A}" name="DHI ID" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{6DAEF38A-39E2-401A-9CE3-03B65FB94594}" name="Age" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{0A1D8840-2673-4A05-A105-50C9EF7F2BA5}" name="Sex" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E84CAAD7-42C1-4175-9F32-FFF6C19B3C7E}" name="Concussed?" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{E297579A-32AB-4E05-9C04-99BBFBC4A31D}" name="Number of Days " dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}" name="Table57" displayName="Table57" ref="A1:M33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:M33" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F4078254-9C13-44CF-B350-8A616CF95F6F}" name="Subject ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A8D1ED97-3348-424C-B1DF-BA4F0881962F}" name="DHI ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{50900733-9EAD-4DE9-8517-60DBC3B3140C}" name="CSTAR ID" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B3035033-EBBB-4E53-864A-6FC7FB811D09}" name="Age" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CA61C850-F6D4-4FC8-80D2-FA5CA6E640EC}" name="Sex" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{DBF697E5-76F9-4DC7-8389-8BD6BB4CEBC0}" name="Concussed?" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B4648E04-0321-4646-AE8B-9005FFD4BCC3}" name="Number of Days " dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{3A8D214F-6843-499D-84EC-D753F58A2457}" name="If not 7, why?" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{7D055EC7-5E38-4032-B226-498368CA6291}" name="General Comments" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{FA7521B6-BCE7-4FDA-8DA7-CD020528E634}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{8B727C7B-D222-4D0C-B206-8643D8EF0CA3}" name="Column2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{5F19E0AE-16F5-4A10-A771-A1F97DD30C45}" name="Age Range" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{E06E7272-832C-4CC9-AE96-EDFE25D364AA}" name="Column3" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}" name="Table1" displayName="Table1" ref="A1:P24" totalsRowShown="0">
+  <autoFilter ref="A1:P24" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{B301ABE5-9BB6-4952-A5C4-640C1DE7A355}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4F134D7E-C55B-4E2D-9976-9E4BDF23849A}" name="Age" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{934BF42F-ED6E-4C7A-8623-D109E34289BE}" name="Sex" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{457B0F72-A598-4AFB-B967-97DFC4112F31}" name="Concuss" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{2D347614-4ACD-4407-AE9B-1E263CE7665C}" name="ConcussLabel" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{8B45D9E1-EC10-4DC8-B20A-24C5DC69797F}" name="Type"/>
+    <tableColumn id="7" xr3:uid="{D0EEC5DD-28A1-46A4-8D12-F77EFC8030C5}" name="Has Healthy Match?">
+      <calculatedColumnFormula>IF(D2="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B2-1, $B$2:$B$31,"&lt;="&amp;B2+1, $C$2:$C$31,C2, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6193E752-E5B6-47BA-B48B-95EE0E57725E}" name="NSI_Score"/>
+    <tableColumn id="9" xr3:uid="{ADD79531-D218-4BE9-807F-771E9043AAE6}" name="Anxiety"/>
+    <tableColumn id="10" xr3:uid="{CAAF891C-9CC1-44C5-97C6-14D83B366F84}" name="Cognitive"/>
+    <tableColumn id="11" xr3:uid="{8EA99B06-3787-4052-91ED-75EF1695B089}" name="Migraine"/>
+    <tableColumn id="12" xr3:uid="{01103561-ADAE-47F0-B91B-7337F2C0006A}" name="Ocular"/>
+    <tableColumn id="13" xr3:uid="{8945C4C4-0365-4039-9930-F239AA295E85}" name="Vestibular"/>
+    <tableColumn id="14" xr3:uid="{37E55D92-1628-43CA-A207-185B77C01B2A}" name="CP_score"/>
+    <tableColumn id="15" xr3:uid="{8DEC721D-53D6-448F-9F26-5D5FF9644735}" name="VOMs"/>
+    <tableColumn id="16" xr3:uid="{D4B092D5-82A3-4769-AC84-01F78743241C}" name="MiniBEST"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,11 +1544,1717 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="18">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G24" si="0">IF(D2="No", "Healthy", IF(COUNTIFS($B$2:$B$24,"&gt;="&amp;B2-1, $B$2:$B$24,"&lt;="&amp;B2+1, $C$2:$C$31,C2, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</f>
+        <v>Healthy</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="18">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="18">
+        <v>50</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="18">
+        <v>42</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>28</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="18">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>27</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="18">
+        <v>44</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>27</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="18">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>46</v>
+      </c>
+      <c r="O9">
+        <v>99</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+      <c r="Q9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="18">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="18">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>33</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="18">
+        <v>28</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="18">
+        <v>25</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>28</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="18">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="18">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>55</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="18">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>49</v>
+      </c>
+      <c r="O16">
+        <v>51</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+      <c r="Q16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="18">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>33</v>
+      </c>
+      <c r="O17">
+        <v>68</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="18">
+        <v>22</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>47</v>
+      </c>
+      <c r="O18">
+        <v>110</v>
+      </c>
+      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="18">
+        <v>26</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>28</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="18">
+        <v>32</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>28</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="18">
+        <v>22</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="18">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="18">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="18">
+        <v>27</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>28</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="18">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="18">
+        <v>24</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="18">
+        <v>32</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="18">
+        <v>28</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="18">
+        <v>23</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="18">
+        <v>25</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="18">
+        <v>26</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="18">
+        <v>33</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="18">
+        <v>37</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="18">
+        <v>26</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="18">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="18">
+        <v>24</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="18">
+        <v>24</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="18">
+        <v>21</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="18">
+        <v>30</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="18">
+        <v>25</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="18">
+        <v>35</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="18">
+        <v>36</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="18">
+        <v>28</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:G43">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No Match">
+      <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
+      <formula>NOT(ISERROR(SEARCH("G:G =""No Match""",I22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC1054C-FE9B-49DE-AC90-AF26B54F8E5A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +4006,2507 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762309DE-46C1-49F4-9D98-3B1CC554FE51}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF65767A-C1E8-45D8-9E28-7C6C5DD7A42F}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="13.109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>28</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>37</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>22</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>25</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1">
+        <v>32</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1">
+        <v>28</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1">
+        <v>32</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1">
+        <v>22</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1">
+        <v>25</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1">
+        <v>27</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB57535-22A5-4A07-B54E-A3714DBCF70C}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>28</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1">
+        <v>30.153846153846153</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.6745949915304115</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>33</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>24</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>36</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>28</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1">
+        <v>50</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1">
+        <v>32</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <v>28</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1">
+        <v>26</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1">
+        <v>32</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1">
+        <v>22</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1">
+        <v>25</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1">
+        <v>25</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="1">
+        <v>27</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00964CB8-9B00-4BAA-80F7-0FFF90F780B1}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(D2="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B2-1, $B$2:$B$31,"&lt;="&amp;B2+1, $C$2:$C$31,C2, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</f>
+        <v>Healthy</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G22" si="0">IF(D3="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B3-1, $B$2:$B$31,"&lt;="&amp;B3+1, $C$2:$C$31,C3, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</f>
+        <v>Healthy</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+      <c r="H9">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>46</v>
+      </c>
+      <c r="O9">
+        <v>99</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>33</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>55</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>49</v>
+      </c>
+      <c r="O16">
+        <v>51</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>33</v>
+      </c>
+      <c r="O17">
+        <v>68</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1">
+        <v>22</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match Found</v>
+      </c>
+      <c r="H18">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>47</v>
+      </c>
+      <c r="O18">
+        <v>110</v>
+      </c>
+      <c r="P18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="1">
+        <v>26</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="1">
+        <v>32</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Healthy</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(D23="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B23-1, $B$2:$B$31,"&lt;="&amp;B23+1, $C$2:$C$31,C23, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</f>
+        <v>Healthy</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1">
+        <v>27</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(D24="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B24-1, $B$2:$B$31,"&lt;="&amp;B24+1, $C$2:$C$31,C24, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</f>
+        <v>Healthy</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:G24">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No Match">
+      <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
+      <formula>NOT(ISERROR(SEARCH("G:G =""No Match""",I22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1E854-581F-4D29-A930-9664D6845F4D}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2001,31 +6522,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="11">
         <v>1</v>
       </c>
@@ -2038,11 +6559,11 @@
       <c r="G3" s="13">
         <v>4</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2060,11 +6581,11 @@
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
@@ -2080,11 +6601,11 @@
       <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="15" t="s">
         <v>63</v>
       </c>
@@ -2100,11 +6621,11 @@
       <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="16" t="s">
         <v>60</v>
       </c>
@@ -2120,11 +6641,11 @@
       <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="16" t="s">
         <v>62</v>
       </c>
@@ -2140,11 +6661,11 @@
       <c r="G8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="17" t="s">
         <v>59</v>
       </c>
@@ -2160,16 +6681,16 @@
       <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\DHI-Lab\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF72D1-11A2-4A04-A210-0D8C0D6E7F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F39607A-00A6-4D01-AA62-441713675F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
     <sheet name="All Subjects w info" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="Healthy" sheetId="4" r:id="rId4"/>
-    <sheet name="Healthy w Notes" sheetId="5" r:id="rId5"/>
-    <sheet name="DHI" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="HC-Lab" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Healthy" sheetId="4" r:id="rId5"/>
+    <sheet name="Healthy w Notes" sheetId="5" r:id="rId6"/>
+    <sheet name="DHI" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="136">
   <si>
     <t>Subject ID</t>
   </si>
@@ -452,6 +453,9 @@
   </si>
   <si>
     <t>DHI</t>
+  </si>
+  <si>
+    <t>S30</t>
   </si>
 </sst>
 </file>
@@ -902,6 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,7 +937,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,13 +1609,13 @@
       <c r="P1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" s="18">
         <v>19</v>
@@ -1665,7 +1669,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="18">
         <v>44</v>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18">
         <v>50</v>
@@ -1827,7 +1831,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18">
         <v>42</v>
@@ -1881,7 +1885,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="18">
         <v>32</v>
@@ -2259,7 +2263,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B14" s="18">
         <v>28</v>
@@ -2313,7 +2317,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B15" s="18">
         <v>42</v>
@@ -2529,7 +2533,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B19" s="18">
         <v>26</v>
@@ -2583,7 +2587,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B20" s="18">
         <v>32</v>
@@ -2637,7 +2641,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B21" s="18">
         <v>22</v>
@@ -2691,7 +2695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B22" s="18">
         <v>25</v>
@@ -3232,6 +3236,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G43">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No Match">
       <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
@@ -3253,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC1054C-FE9B-49DE-AC90-AF26B54F8E5A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B41" sqref="A21:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4007,6 +4012,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E4C2E5-EB47-4439-8988-27C2A5027006}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762309DE-46C1-49F4-9D98-3B1CC554FE51}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4018,7 +4093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF65767A-C1E8-45D8-9E28-7C6C5DD7A42F}">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -4586,7 +4661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB57535-22A5-4A07-B54E-A3714DBCF70C}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -5255,7 +5330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00964CB8-9B00-4BAA-80F7-0FFF90F780B1}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -6506,7 +6581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1E854-581F-4D29-A930-9664D6845F4D}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -6522,31 +6597,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="22"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="11">
         <v>1</v>
       </c>
@@ -6559,11 +6634,11 @@
       <c r="G3" s="13">
         <v>4</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -6581,11 +6656,11 @@
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
@@ -6601,11 +6676,11 @@
       <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="15" t="s">
         <v>63</v>
       </c>
@@ -6621,11 +6696,11 @@
       <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="16" t="s">
         <v>60</v>
       </c>
@@ -6641,11 +6716,11 @@
       <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="16" t="s">
         <v>62</v>
       </c>
@@ -6661,11 +6736,11 @@
       <c r="G8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="17" t="s">
         <v>59</v>
       </c>
@@ -6681,16 +6756,16 @@
       <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\DHI-Lab\CSTAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF72D1-11A2-4A04-A210-0D8C0D6E7F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FFC09-22AA-4ED9-BF42-ADC1B8E6E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="137">
   <si>
     <t>Subject ID</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>DHI</t>
+  </si>
+  <si>
+    <t>tug_st_time</t>
+  </si>
+  <si>
+    <t>tug_dt_time</t>
   </si>
 </sst>
 </file>
@@ -902,6 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,7 +939,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,9 +1163,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:Q43" totalsRowShown="0">
-  <autoFilter ref="A1:Q43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:S43" totalsRowShown="0">
+  <autoFilter ref="A1:S43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{C044C6D2-CE0C-4909-9FBB-B96EDCB1FCAC}" name="ID" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{34919B2F-5D0B-4C75-B0BA-9FA545CC6BEE}" name="Age" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{CBB48687-91A3-4808-A9C3-5F03535C4FB2}" name="Sex" dataDxfId="34"/>
@@ -1179,6 +1185,8 @@
     <tableColumn id="15" xr3:uid="{450A1504-AE23-4973-B2E6-A98413963B73}" name="VOMs"/>
     <tableColumn id="16" xr3:uid="{2296B09E-33DE-4BBD-90A1-C57DCFB35AC3}" name="MiniBEST"/>
     <tableColumn id="17" xr3:uid="{2CEAFE56-C0EB-48F3-83C2-8AE69790CA37}" name="DHI"/>
+    <tableColumn id="18" xr3:uid="{EA4D983C-6A4E-45A4-B49C-7AACE7F80DC3}" name="tug_st_time"/>
+    <tableColumn id="19" xr3:uid="{76B0A8CB-B51A-4D7F-9AC5-82D1ECE722E6}" name="tug_dt_time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1545,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1564,7 @@
     <col min="4" max="4" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1605,11 +1613,17 @@
       <c r="P1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -1716,8 +1730,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1771,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -1824,8 +1844,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -1878,8 +1904,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -1932,8 +1964,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -1986,8 +2024,14 @@
       <c r="Q8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -2040,8 +2084,14 @@
       <c r="Q9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -2094,8 +2144,14 @@
       <c r="Q10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -2148,8 +2204,14 @@
       <c r="Q11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2202,8 +2264,14 @@
       <c r="Q12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2256,8 +2324,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -2310,8 +2384,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2364,8 +2444,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2418,8 +2504,14 @@
       <c r="Q16">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2472,8 +2564,14 @@
       <c r="Q17">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -2526,8 +2624,14 @@
       <c r="Q18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>12</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
@@ -2580,8 +2684,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -2634,8 +2744,14 @@
       <c r="Q20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -2688,8 +2804,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -2742,8 +2864,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -2796,8 +2924,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -2850,8 +2984,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2871,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2891,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2951,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -6522,31 +6662,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="22"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="11">
         <v>1</v>
       </c>
@@ -6559,11 +6699,11 @@
       <c r="G3" s="13">
         <v>4</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -6581,11 +6721,11 @@
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
@@ -6601,11 +6741,11 @@
       <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="15" t="s">
         <v>63</v>
       </c>
@@ -6621,11 +6761,11 @@
       <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="16" t="s">
         <v>60</v>
       </c>
@@ -6641,11 +6781,11 @@
       <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="16" t="s">
         <v>62</v>
       </c>
@@ -6661,11 +6801,11 @@
       <c r="G8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="17" t="s">
         <v>59</v>
       </c>
@@ -6681,16 +6821,16 @@
       <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FFC09-22AA-4ED9-BF42-ADC1B8E6E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7CC644-2BBC-4E69-84E6-A33A3AD65946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="138">
   <si>
     <t>Subject ID</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>tug_dt_time</t>
+  </si>
+  <si>
+    <t>S30</t>
   </si>
 </sst>
 </file>
@@ -1553,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1567,7 @@
     <col min="4" max="4" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1623,9 +1626,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" s="18">
         <v>19</v>
@@ -1677,9 +1680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="18">
         <v>44</v>
@@ -1737,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1790,10 +1793,12 @@
       <c r="Q4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18">
         <v>50</v>
@@ -1850,10 +1855,12 @@
       <c r="S5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18">
         <v>42</v>
@@ -1910,10 +1917,12 @@
       <c r="S6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="18">
         <v>32</v>
@@ -1970,8 +1979,10 @@
       <c r="S7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2030,8 +2041,10 @@
       <c r="S8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -2090,8 +2103,10 @@
       <c r="S9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -2150,8 +2165,10 @@
       <c r="S10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -2210,8 +2227,10 @@
       <c r="S11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2270,8 +2289,10 @@
       <c r="S12">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2330,10 +2351,12 @@
       <c r="S13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B14" s="18">
         <v>28</v>
@@ -2390,10 +2413,12 @@
       <c r="S14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B15" s="18">
         <v>42</v>
@@ -2450,8 +2475,10 @@
       <c r="S15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2510,8 +2537,10 @@
       <c r="S16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2570,8 +2599,10 @@
       <c r="S17">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -2630,10 +2661,12 @@
       <c r="S18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B19" s="18">
         <v>26</v>
@@ -2690,10 +2723,12 @@
       <c r="S19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B20" s="18">
         <v>32</v>
@@ -2750,10 +2785,12 @@
       <c r="S20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B21" s="18">
         <v>22</v>
@@ -2810,10 +2847,12 @@
       <c r="S21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B22" s="18">
         <v>25</v>
@@ -2870,8 +2909,10 @@
       <c r="S22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -2930,8 +2971,10 @@
       <c r="S23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -2990,8 +3033,10 @@
       <c r="S24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3393,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC1054C-FE9B-49DE-AC90-AF26B54F8E5A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4164,7 +4209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F20"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\DHI-Lab\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FFC09-22AA-4ED9-BF42-ADC1B8E6E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42933B-A880-4F53-86A2-E087E434E8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="2880" yWindow="-13635" windowWidth="17280" windowHeight="9960" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
@@ -1555,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\DHI-Lab\CSTAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42933B-A880-4F53-86A2-E087E434E8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B69B0-DB53-43BA-8B98-AC494AD18344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="-13635" windowWidth="17280" windowHeight="9960" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
@@ -1553,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1564,7 @@
     <col min="4" max="4" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1623,9 +1623,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" s="18">
         <v>19</v>
@@ -1676,10 +1676,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="18">
         <v>44</v>
@@ -1736,8 +1737,10 @@
       <c r="S3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1790,10 +1793,12 @@
       <c r="Q4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18">
         <v>50</v>
@@ -1850,10 +1855,12 @@
       <c r="S5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18">
         <v>42</v>
@@ -1910,10 +1917,12 @@
       <c r="S6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="18">
         <v>32</v>
@@ -1970,8 +1979,10 @@
       <c r="S7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2030,8 +2041,10 @@
       <c r="S8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -2090,8 +2103,10 @@
       <c r="S9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -2150,8 +2165,10 @@
       <c r="S10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -2210,8 +2227,10 @@
       <c r="S11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2270,8 +2289,10 @@
       <c r="S12">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2330,10 +2351,12 @@
       <c r="S13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B14" s="18">
         <v>28</v>
@@ -2390,10 +2413,12 @@
       <c r="S14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B15" s="18">
         <v>42</v>
@@ -2450,8 +2475,10 @@
       <c r="S15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2510,8 +2537,10 @@
       <c r="S16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2570,8 +2599,10 @@
       <c r="S17">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -2630,10 +2661,12 @@
       <c r="S18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B19" s="18">
         <v>26</v>
@@ -2690,10 +2723,12 @@
       <c r="S19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B20" s="18">
         <v>32</v>
@@ -2750,10 +2785,12 @@
       <c r="S20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B21" s="18">
         <v>22</v>
@@ -2810,10 +2847,12 @@
       <c r="S21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B22" s="18">
         <v>25</v>
@@ -2870,8 +2909,10 @@
       <c r="S22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -2930,8 +2971,9 @@
       <c r="S23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -2991,7 +3033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3393,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC1054C-FE9B-49DE-AC90-AF26B54F8E5A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B69B0-DB53-43BA-8B98-AC494AD18344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19DFF6F-0949-410D-AB34-39B673483B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="137">
   <si>
     <t>Subject ID</t>
   </si>
@@ -1230,9 +1230,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}" name="Table1" displayName="Table1" ref="A1:P24" totalsRowShown="0">
-  <autoFilter ref="A1:P24" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}" name="Table1" displayName="Table1" ref="A1:S24" totalsRowShown="0">
+  <autoFilter ref="A1:S24" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{B301ABE5-9BB6-4952-A5C4-640C1DE7A355}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{4F134D7E-C55B-4E2D-9976-9E4BDF23849A}" name="Age" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{934BF42F-ED6E-4C7A-8623-D109E34289BE}" name="Sex" dataDxfId="6"/>
@@ -1251,6 +1251,9 @@
     <tableColumn id="14" xr3:uid="{37E55D92-1628-43CA-A207-185B77C01B2A}" name="CP_score"/>
     <tableColumn id="15" xr3:uid="{8DEC721D-53D6-448F-9F26-5D5FF9644735}" name="VOMs"/>
     <tableColumn id="16" xr3:uid="{D4B092D5-82A3-4769-AC84-01F78743241C}" name="MiniBEST"/>
+    <tableColumn id="17" xr3:uid="{C040BD74-36F4-46E0-B9F1-7912065395A9}" name="DHI"/>
+    <tableColumn id="18" xr3:uid="{C2D6EF54-1E27-4849-B23D-B220E9D0E4CC}" name="tug_st_time"/>
+    <tableColumn id="19" xr3:uid="{F321D675-4DDC-4DF8-B6DE-9201B8D0F336}" name="tug_dt_time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1555,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5439,15 +5442,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00964CB8-9B00-4BAA-80F7-0FFF90F780B1}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -5496,8 +5499,17 @@
       <c r="P1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -5547,8 +5559,11 @@
       <c r="P2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -5598,8 +5613,17 @@
       <c r="P3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -5649,8 +5673,11 @@
       <c r="P4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -5700,8 +5727,17 @@
       <c r="P5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -5751,8 +5787,17 @@
       <c r="P6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -5802,8 +5847,17 @@
       <c r="P7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -5853,8 +5907,17 @@
       <c r="P8">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>22</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -5904,8 +5967,17 @@
       <c r="P9">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>44</v>
+      </c>
+      <c r="R9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -5955,8 +6027,17 @@
       <c r="P10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -6006,8 +6087,17 @@
       <c r="P11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -6057,8 +6147,17 @@
       <c r="P12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>32</v>
+      </c>
+      <c r="R12">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -6108,8 +6207,17 @@
       <c r="P13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -6159,8 +6267,17 @@
       <c r="P14">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -6210,8 +6327,17 @@
       <c r="P15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -6261,8 +6387,17 @@
       <c r="P16">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -6312,8 +6447,17 @@
       <c r="P17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>28</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -6363,8 +6507,17 @@
       <c r="P18">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>12</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
@@ -6414,8 +6567,17 @@
       <c r="P19">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -6465,8 +6627,17 @@
       <c r="P20">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -6516,8 +6687,17 @@
       <c r="P21">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -6567,8 +6747,17 @@
       <c r="P22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -6618,8 +6807,17 @@
       <c r="P23">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -6668,6 +6866,15 @@
       </c>
       <c r="P24">
         <v>28</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19DFF6F-0949-410D-AB34-39B673483B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1F20D-730E-4DA5-8544-F29FCC81C178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="139">
   <si>
     <t>Subject ID</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>tug_dt_time</t>
+  </si>
+  <si>
+    <t>Day Since</t>
+  </si>
+  <si>
+    <t>DaysSince</t>
   </si>
 </sst>
 </file>
@@ -945,6 +951,30 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1028,30 +1058,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1163,9 +1169,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:S43" totalsRowShown="0">
-  <autoFilter ref="A1:S43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:T43" totalsRowShown="0">
+  <autoFilter ref="A1:T43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{C044C6D2-CE0C-4909-9FBB-B96EDCB1FCAC}" name="ID" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{34919B2F-5D0B-4C75-B0BA-9FA545CC6BEE}" name="Age" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{CBB48687-91A3-4808-A9C3-5F03535C4FB2}" name="Sex" dataDxfId="34"/>
@@ -1187,43 +1193,44 @@
     <tableColumn id="17" xr3:uid="{2CEAFE56-C0EB-48F3-83C2-8AE69790CA37}" name="DHI"/>
     <tableColumn id="18" xr3:uid="{EA4D983C-6A4E-45A4-B49C-7AACE7F80DC3}" name="tug_st_time"/>
     <tableColumn id="19" xr3:uid="{76B0A8CB-B51A-4D7F-9AC5-82D1ECE722E6}" name="tug_dt_time"/>
+    <tableColumn id="20" xr3:uid="{EE1BE392-3ED1-4A00-BA84-193ED6CC861D}" name="DaysSince"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}" name="Table5" displayName="Table5" ref="A1:F33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}" name="Table5" displayName="Table5" ref="A1:F33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F33" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{27C38256-A294-4057-87EF-B8C834C564CD}" name="Subject ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{58C573A5-A702-4293-B44E-27D5F281A91A}" name="DHI ID" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{6DAEF38A-39E2-401A-9CE3-03B65FB94594}" name="Age" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{0A1D8840-2673-4A05-A105-50C9EF7F2BA5}" name="Sex" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{E84CAAD7-42C1-4175-9F32-FFF6C19B3C7E}" name="Concussed?" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{E297579A-32AB-4E05-9C04-99BBFBC4A31D}" name="Number of Days " dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{27C38256-A294-4057-87EF-B8C834C564CD}" name="Subject ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{58C573A5-A702-4293-B44E-27D5F281A91A}" name="DHI ID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6DAEF38A-39E2-401A-9CE3-03B65FB94594}" name="Age" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0A1D8840-2673-4A05-A105-50C9EF7F2BA5}" name="Sex" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E84CAAD7-42C1-4175-9F32-FFF6C19B3C7E}" name="Concussed?" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E297579A-32AB-4E05-9C04-99BBFBC4A31D}" name="Number of Days " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}" name="Table57" displayName="Table57" ref="A1:M33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}" name="Table57" displayName="Table57" ref="A1:M33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:M33" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F4078254-9C13-44CF-B350-8A616CF95F6F}" name="Subject ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A8D1ED97-3348-424C-B1DF-BA4F0881962F}" name="DHI ID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{50900733-9EAD-4DE9-8517-60DBC3B3140C}" name="CSTAR ID" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{B3035033-EBBB-4E53-864A-6FC7FB811D09}" name="Age" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CA61C850-F6D4-4FC8-80D2-FA5CA6E640EC}" name="Sex" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{DBF697E5-76F9-4DC7-8389-8BD6BB4CEBC0}" name="Concussed?" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B4648E04-0321-4646-AE8B-9005FFD4BCC3}" name="Number of Days " dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{3A8D214F-6843-499D-84EC-D753F58A2457}" name="If not 7, why?" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{7D055EC7-5E38-4032-B226-498368CA6291}" name="General Comments" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{FA7521B6-BCE7-4FDA-8DA7-CD020528E634}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{8B727C7B-D222-4D0C-B206-8643D8EF0CA3}" name="Column2" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{5F19E0AE-16F5-4A10-A771-A1F97DD30C45}" name="Age Range" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{E06E7272-832C-4CC9-AE96-EDFE25D364AA}" name="Column3" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F4078254-9C13-44CF-B350-8A616CF95F6F}" name="Subject ID" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A8D1ED97-3348-424C-B1DF-BA4F0881962F}" name="DHI ID" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{50900733-9EAD-4DE9-8517-60DBC3B3140C}" name="CSTAR ID" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{B3035033-EBBB-4E53-864A-6FC7FB811D09}" name="Age" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{CA61C850-F6D4-4FC8-80D2-FA5CA6E640EC}" name="Sex" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{DBF697E5-76F9-4DC7-8389-8BD6BB4CEBC0}" name="Concussed?" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{B4648E04-0321-4646-AE8B-9005FFD4BCC3}" name="Number of Days " dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{3A8D214F-6843-499D-84EC-D753F58A2457}" name="If not 7, why?" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{7D055EC7-5E38-4032-B226-498368CA6291}" name="General Comments" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{FA7521B6-BCE7-4FDA-8DA7-CD020528E634}" name="Column1" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{8B727C7B-D222-4D0C-B206-8643D8EF0CA3}" name="Column2" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{5F19E0AE-16F5-4A10-A771-A1F97DD30C45}" name="Age Range" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{E06E7272-832C-4CC9-AE96-EDFE25D364AA}" name="Column3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1233,11 +1240,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}" name="Table1" displayName="Table1" ref="A1:S24" totalsRowShown="0">
   <autoFilter ref="A1:S24" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{B301ABE5-9BB6-4952-A5C4-640C1DE7A355}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4F134D7E-C55B-4E2D-9976-9E4BDF23849A}" name="Age" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{934BF42F-ED6E-4C7A-8623-D109E34289BE}" name="Sex" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{457B0F72-A598-4AFB-B967-97DFC4112F31}" name="Concuss" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2D347614-4ACD-4407-AE9B-1E263CE7665C}" name="ConcussLabel" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B301ABE5-9BB6-4952-A5C4-640C1DE7A355}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4F134D7E-C55B-4E2D-9976-9E4BDF23849A}" name="Age" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{934BF42F-ED6E-4C7A-8623-D109E34289BE}" name="Sex" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{457B0F72-A598-4AFB-B967-97DFC4112F31}" name="Concuss" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2D347614-4ACD-4407-AE9B-1E263CE7665C}" name="ConcussLabel" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{8B45D9E1-EC10-4DC8-B20A-24C5DC69797F}" name="Type"/>
     <tableColumn id="7" xr3:uid="{D0EEC5DD-28A1-46A4-8D12-F77EFC8030C5}" name="Has Healthy Match?">
       <calculatedColumnFormula>IF(D2="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B2-1, $B$2:$B$31,"&lt;="&amp;B2+1, $C$2:$C$31,C2, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</calculatedColumnFormula>
@@ -1558,13 +1565,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15B6FB-64A7-487C-83A8-9CFD833F5CA1}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8.88671875" style="19"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -1625,6 +1633,9 @@
       <c r="S1" t="s">
         <v>136</v>
       </c>
+      <c r="T1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1740,7 +1751,10 @@
       <c r="S3">
         <v>8</v>
       </c>
-      <c r="V3" s="1"/>
+      <c r="V3" s="1">
+        <f>AVERAGE(T4:T18)</f>
+        <v>35.700000000000003</v>
+      </c>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1796,7 +1810,13 @@
       <c r="Q4">
         <v>6</v>
       </c>
-      <c r="V4" s="1"/>
+      <c r="T4">
+        <v>92</v>
+      </c>
+      <c r="V4" s="1">
+        <f>_xlfn.STDEV.P(T4:T18)</f>
+        <v>20.469733754985675</v>
+      </c>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -2044,6 +2064,9 @@
       <c r="S8">
         <v>12</v>
       </c>
+      <c r="T8">
+        <v>28</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -2106,6 +2129,9 @@
       <c r="S9">
         <v>15</v>
       </c>
+      <c r="T9">
+        <v>22</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
@@ -2168,6 +2194,9 @@
       <c r="S10">
         <v>16</v>
       </c>
+      <c r="T10">
+        <v>21</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
@@ -2230,6 +2259,9 @@
       <c r="S11">
         <v>14</v>
       </c>
+      <c r="T11">
+        <v>40</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
@@ -2292,6 +2324,9 @@
       <c r="S12">
         <v>11.5</v>
       </c>
+      <c r="T12">
+        <v>44</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
@@ -2354,6 +2389,9 @@
       <c r="S13">
         <v>10</v>
       </c>
+      <c r="T13">
+        <v>21</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
@@ -2540,6 +2578,9 @@
       <c r="S16">
         <v>12</v>
       </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
@@ -2602,6 +2643,9 @@
       <c r="S17">
         <v>24</v>
       </c>
+      <c r="T17">
+        <v>36</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
@@ -2664,6 +2708,9 @@
       <c r="S18">
         <v>15</v>
       </c>
+      <c r="T18">
+        <v>33</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
@@ -3418,12 +3465,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G43">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No Match">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="No Match">
       <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
       <formula>NOT(ISERROR(SEARCH("G:G =""No Match""",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4205,11 +4252,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF65767A-C1E8-45D8-9E28-7C6C5DD7A42F}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F20"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4219,7 +4266,7 @@
     <col min="5" max="6" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4238,8 +4285,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4253,7 +4303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4281,7 +4331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4295,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4309,7 +4359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4323,7 +4373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4337,7 +4387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4351,7 +4401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4365,7 +4415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4376,7 +4426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4404,7 +4454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4418,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4432,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5444,7 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00964CB8-9B00-4BAA-80F7-0FFF90F780B1}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -6879,12 +6929,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No Match">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="No Match">
       <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
       <formula>NOT(ISERROR(SEARCH("G:G =""No Match""",I22)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chose\Box\C-STAR Pilot\CSTAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B69B0-DB53-43BA-8B98-AC494AD18344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1F20D-730E-4DA5-8544-F29FCC81C178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57EA6345-879C-47C4-BA35-5BEFDD08E520}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="139">
   <si>
     <t>Subject ID</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>tug_dt_time</t>
+  </si>
+  <si>
+    <t>Day Since</t>
+  </si>
+  <si>
+    <t>DaysSince</t>
   </si>
 </sst>
 </file>
@@ -945,6 +951,30 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1028,30 +1058,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1163,9 +1169,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:S43" totalsRowShown="0">
-  <autoFilter ref="A1:S43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}" name="Table18" displayName="Table18" ref="A1:T43" totalsRowShown="0">
+  <autoFilter ref="A1:T43" xr:uid="{7830FED7-7667-4CE3-A654-F54EABC6A83C}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{C044C6D2-CE0C-4909-9FBB-B96EDCB1FCAC}" name="ID" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{34919B2F-5D0B-4C75-B0BA-9FA545CC6BEE}" name="Age" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{CBB48687-91A3-4808-A9C3-5F03535C4FB2}" name="Sex" dataDxfId="34"/>
@@ -1187,57 +1193,58 @@
     <tableColumn id="17" xr3:uid="{2CEAFE56-C0EB-48F3-83C2-8AE69790CA37}" name="DHI"/>
     <tableColumn id="18" xr3:uid="{EA4D983C-6A4E-45A4-B49C-7AACE7F80DC3}" name="tug_st_time"/>
     <tableColumn id="19" xr3:uid="{76B0A8CB-B51A-4D7F-9AC5-82D1ECE722E6}" name="tug_dt_time"/>
+    <tableColumn id="20" xr3:uid="{EE1BE392-3ED1-4A00-BA84-193ED6CC861D}" name="DaysSince"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}" name="Table5" displayName="Table5" ref="A1:F33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}" name="Table5" displayName="Table5" ref="A1:F33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F33" xr:uid="{CE021E43-8254-41FA-8FB8-C6CCE6D73454}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{27C38256-A294-4057-87EF-B8C834C564CD}" name="Subject ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{58C573A5-A702-4293-B44E-27D5F281A91A}" name="DHI ID" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{6DAEF38A-39E2-401A-9CE3-03B65FB94594}" name="Age" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{0A1D8840-2673-4A05-A105-50C9EF7F2BA5}" name="Sex" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{E84CAAD7-42C1-4175-9F32-FFF6C19B3C7E}" name="Concussed?" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{E297579A-32AB-4E05-9C04-99BBFBC4A31D}" name="Number of Days " dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{27C38256-A294-4057-87EF-B8C834C564CD}" name="Subject ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{58C573A5-A702-4293-B44E-27D5F281A91A}" name="DHI ID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6DAEF38A-39E2-401A-9CE3-03B65FB94594}" name="Age" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0A1D8840-2673-4A05-A105-50C9EF7F2BA5}" name="Sex" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E84CAAD7-42C1-4175-9F32-FFF6C19B3C7E}" name="Concussed?" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E297579A-32AB-4E05-9C04-99BBFBC4A31D}" name="Number of Days " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}" name="Table57" displayName="Table57" ref="A1:M33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}" name="Table57" displayName="Table57" ref="A1:M33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:M33" xr:uid="{F2401D82-9C5A-498C-987E-7BC39728B654}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F4078254-9C13-44CF-B350-8A616CF95F6F}" name="Subject ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A8D1ED97-3348-424C-B1DF-BA4F0881962F}" name="DHI ID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{50900733-9EAD-4DE9-8517-60DBC3B3140C}" name="CSTAR ID" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{B3035033-EBBB-4E53-864A-6FC7FB811D09}" name="Age" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CA61C850-F6D4-4FC8-80D2-FA5CA6E640EC}" name="Sex" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{DBF697E5-76F9-4DC7-8389-8BD6BB4CEBC0}" name="Concussed?" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B4648E04-0321-4646-AE8B-9005FFD4BCC3}" name="Number of Days " dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{3A8D214F-6843-499D-84EC-D753F58A2457}" name="If not 7, why?" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{7D055EC7-5E38-4032-B226-498368CA6291}" name="General Comments" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{FA7521B6-BCE7-4FDA-8DA7-CD020528E634}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{8B727C7B-D222-4D0C-B206-8643D8EF0CA3}" name="Column2" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{5F19E0AE-16F5-4A10-A771-A1F97DD30C45}" name="Age Range" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{E06E7272-832C-4CC9-AE96-EDFE25D364AA}" name="Column3" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F4078254-9C13-44CF-B350-8A616CF95F6F}" name="Subject ID" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A8D1ED97-3348-424C-B1DF-BA4F0881962F}" name="DHI ID" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{50900733-9EAD-4DE9-8517-60DBC3B3140C}" name="CSTAR ID" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{B3035033-EBBB-4E53-864A-6FC7FB811D09}" name="Age" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{CA61C850-F6D4-4FC8-80D2-FA5CA6E640EC}" name="Sex" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{DBF697E5-76F9-4DC7-8389-8BD6BB4CEBC0}" name="Concussed?" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{B4648E04-0321-4646-AE8B-9005FFD4BCC3}" name="Number of Days " dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{3A8D214F-6843-499D-84EC-D753F58A2457}" name="If not 7, why?" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{7D055EC7-5E38-4032-B226-498368CA6291}" name="General Comments" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{FA7521B6-BCE7-4FDA-8DA7-CD020528E634}" name="Column1" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{8B727C7B-D222-4D0C-B206-8643D8EF0CA3}" name="Column2" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{5F19E0AE-16F5-4A10-A771-A1F97DD30C45}" name="Age Range" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{E06E7272-832C-4CC9-AE96-EDFE25D364AA}" name="Column3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}" name="Table1" displayName="Table1" ref="A1:P24" totalsRowShown="0">
-  <autoFilter ref="A1:P24" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{B301ABE5-9BB6-4952-A5C4-640C1DE7A355}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4F134D7E-C55B-4E2D-9976-9E4BDF23849A}" name="Age" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{934BF42F-ED6E-4C7A-8623-D109E34289BE}" name="Sex" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{457B0F72-A598-4AFB-B967-97DFC4112F31}" name="Concuss" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2D347614-4ACD-4407-AE9B-1E263CE7665C}" name="ConcussLabel" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}" name="Table1" displayName="Table1" ref="A1:S24" totalsRowShown="0">
+  <autoFilter ref="A1:S24" xr:uid="{3958C321-21CB-4EDE-BBE0-953BEFD955A9}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{B301ABE5-9BB6-4952-A5C4-640C1DE7A355}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4F134D7E-C55B-4E2D-9976-9E4BDF23849A}" name="Age" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{934BF42F-ED6E-4C7A-8623-D109E34289BE}" name="Sex" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{457B0F72-A598-4AFB-B967-97DFC4112F31}" name="Concuss" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2D347614-4ACD-4407-AE9B-1E263CE7665C}" name="ConcussLabel" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{8B45D9E1-EC10-4DC8-B20A-24C5DC69797F}" name="Type"/>
     <tableColumn id="7" xr3:uid="{D0EEC5DD-28A1-46A4-8D12-F77EFC8030C5}" name="Has Healthy Match?">
       <calculatedColumnFormula>IF(D2="No", "Healthy", IF(COUNTIFS($B$2:$B$31,"&gt;="&amp;B2-1, $B$2:$B$31,"&lt;="&amp;B2+1, $C$2:$C$31,C2, $D$2:$D$31,"No")&gt;0, "Match Found", "No Match"))</calculatedColumnFormula>
@@ -1251,6 +1258,9 @@
     <tableColumn id="14" xr3:uid="{37E55D92-1628-43CA-A207-185B77C01B2A}" name="CP_score"/>
     <tableColumn id="15" xr3:uid="{8DEC721D-53D6-448F-9F26-5D5FF9644735}" name="VOMs"/>
     <tableColumn id="16" xr3:uid="{D4B092D5-82A3-4769-AC84-01F78743241C}" name="MiniBEST"/>
+    <tableColumn id="17" xr3:uid="{C040BD74-36F4-46E0-B9F1-7912065395A9}" name="DHI"/>
+    <tableColumn id="18" xr3:uid="{C2D6EF54-1E27-4849-B23D-B220E9D0E4CC}" name="tug_st_time"/>
+    <tableColumn id="19" xr3:uid="{F321D675-4DDC-4DF8-B6DE-9201B8D0F336}" name="tug_dt_time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1556,12 +1566,13 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8.88671875" style="19"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -1622,6 +1633,9 @@
       <c r="S1" t="s">
         <v>136</v>
       </c>
+      <c r="T1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1737,7 +1751,10 @@
       <c r="S3">
         <v>8</v>
       </c>
-      <c r="V3" s="1"/>
+      <c r="V3" s="1">
+        <f>AVERAGE(T4:T18)</f>
+        <v>35.700000000000003</v>
+      </c>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1793,7 +1810,13 @@
       <c r="Q4">
         <v>6</v>
       </c>
-      <c r="V4" s="1"/>
+      <c r="T4">
+        <v>92</v>
+      </c>
+      <c r="V4" s="1">
+        <f>_xlfn.STDEV.P(T4:T18)</f>
+        <v>20.469733754985675</v>
+      </c>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -2041,6 +2064,9 @@
       <c r="S8">
         <v>12</v>
       </c>
+      <c r="T8">
+        <v>28</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -2103,6 +2129,9 @@
       <c r="S9">
         <v>15</v>
       </c>
+      <c r="T9">
+        <v>22</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
@@ -2165,6 +2194,9 @@
       <c r="S10">
         <v>16</v>
       </c>
+      <c r="T10">
+        <v>21</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
@@ -2227,6 +2259,9 @@
       <c r="S11">
         <v>14</v>
       </c>
+      <c r="T11">
+        <v>40</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
@@ -2289,6 +2324,9 @@
       <c r="S12">
         <v>11.5</v>
       </c>
+      <c r="T12">
+        <v>44</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
@@ -2351,6 +2389,9 @@
       <c r="S13">
         <v>10</v>
       </c>
+      <c r="T13">
+        <v>21</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
@@ -2537,6 +2578,9 @@
       <c r="S16">
         <v>12</v>
       </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
@@ -2599,6 +2643,9 @@
       <c r="S17">
         <v>24</v>
       </c>
+      <c r="T17">
+        <v>36</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
@@ -2661,6 +2708,9 @@
       <c r="S18">
         <v>15</v>
       </c>
+      <c r="T18">
+        <v>33</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
@@ -3415,12 +3465,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G43">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No Match">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="No Match">
       <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
       <formula>NOT(ISERROR(SEARCH("G:G =""No Match""",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4202,11 +4252,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF65767A-C1E8-45D8-9E28-7C6C5DD7A42F}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F20"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4216,7 +4266,7 @@
     <col min="5" max="6" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4235,8 +4285,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +4303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4264,7 +4317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4292,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4306,7 +4359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4320,7 +4373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4334,7 +4387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4348,7 +4401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4362,7 +4415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4373,7 +4426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4387,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4401,7 +4454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4415,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4429,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5439,15 +5492,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00964CB8-9B00-4BAA-80F7-0FFF90F780B1}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P24"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -5496,8 +5549,17 @@
       <c r="P1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -5547,8 +5609,11 @@
       <c r="P2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -5598,8 +5663,17 @@
       <c r="P3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -5649,8 +5723,11 @@
       <c r="P4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -5700,8 +5777,17 @@
       <c r="P5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -5751,8 +5837,17 @@
       <c r="P6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -5802,8 +5897,17 @@
       <c r="P7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -5853,8 +5957,17 @@
       <c r="P8">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>22</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -5904,8 +6017,17 @@
       <c r="P9">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>44</v>
+      </c>
+      <c r="R9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -5955,8 +6077,17 @@
       <c r="P10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -6006,8 +6137,17 @@
       <c r="P11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -6057,8 +6197,17 @@
       <c r="P12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>32</v>
+      </c>
+      <c r="R12">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -6108,8 +6257,17 @@
       <c r="P13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -6159,8 +6317,17 @@
       <c r="P14">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -6210,8 +6377,17 @@
       <c r="P15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -6261,8 +6437,17 @@
       <c r="P16">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -6312,8 +6497,17 @@
       <c r="P17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>28</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -6363,8 +6557,17 @@
       <c r="P18">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>12</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
@@ -6414,8 +6617,17 @@
       <c r="P19">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -6465,8 +6677,17 @@
       <c r="P20">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -6516,8 +6737,17 @@
       <c r="P21">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -6567,8 +6797,17 @@
       <c r="P22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -6618,8 +6857,17 @@
       <c r="P23">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -6669,15 +6917,24 @@
       <c r="P24">
         <v>28</v>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No Match">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="No Match">
       <formula>NOT(ISERROR(SEARCH("No Match",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="G:G =&quot;No Match&quot;">
       <formula>NOT(ISERROR(SEARCH("G:G =""No Match""",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
